--- a/perf_du_fullwithno.xlsx
+++ b/perf_du_fullwithno.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cuidi/Library/Mobile Documents/com~apple~CloudDocs/Research/5G/csvAnalysis/Test5Gscript/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB0EF8B8-07FF-574A-BE3E-82E75BEEA3AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7FB4775-8EF9-0740-A66A-C865E9CFE873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38420" yWindow="500" windowWidth="38400" windowHeight="19500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="perf_du_fullwithno" sheetId="1" r:id="rId1"/>
@@ -2046,8 +2046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T589"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="102" workbookViewId="0">
-      <selection activeCell="T11" sqref="T11"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="102" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4220,7 +4220,7 @@
         <v>2.74588E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>3.7000000000000002E-3</v>
       </c>
@@ -4265,7 +4265,7 @@
         <v>2.6736200000000002E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="8">
         <v>3.7000000000000002E-3</v>
       </c>
@@ -4357,7 +4357,7 @@
         <v>-5.5448699999999995E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="8">
         <v>3.3E-3</v>
       </c>
@@ -4496,7 +4496,7 @@
         <v>2.2400599999999999E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>2.8999999999999998E-3</v>
       </c>
@@ -4588,7 +4588,7 @@
         <v>-7.7405299999999998E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
         <v>2.5999999999999999E-3</v>
       </c>
@@ -4866,7 +4866,7 @@
         <v>1.4452E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="8">
         <v>1.9E-3</v>
       </c>
@@ -4911,7 +4911,7 @@
         <v>1.37294E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="8">
         <v>1.9E-3</v>
       </c>
@@ -5003,7 +5003,7 @@
         <v>-6.98119E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="8">
         <v>1.8E-3</v>
       </c>
@@ -5095,7 +5095,7 @@
         <v>-3.2807799999999996E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="8">
         <v>1.6999999999999999E-3</v>
       </c>
@@ -5140,7 +5140,7 @@
         <v>1.22842E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="8">
         <v>1.5E-3</v>
       </c>
@@ -5602,7 +5602,7 @@
         <v>7.6316999999999997E-4</v>
       </c>
     </row>
-    <row r="77" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="8">
         <v>1.2999999999999999E-3</v>
       </c>
@@ -5835,7 +5835,7 @@
         <v>8.6711999999999998E-4</v>
       </c>
     </row>
-    <row r="82" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="8">
         <v>1.1999999999999999E-3</v>
       </c>
@@ -5927,7 +5927,7 @@
         <v>-1.4236100000000001E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="8">
         <v>1.1000000000000001E-3</v>
       </c>
@@ -5972,7 +5972,7 @@
         <v>7.948600000000001E-4</v>
       </c>
     </row>
-    <row r="85" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" s="8">
         <v>1.1000000000000001E-3</v>
       </c>
@@ -6064,7 +6064,7 @@
         <v>-3.2579700000000002E-3</v>
       </c>
     </row>
-    <row r="87" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" s="8">
         <v>1.1000000000000001E-3</v>
       </c>
@@ -6203,7 +6203,7 @@
         <v>-4.2112799999999995E-3</v>
       </c>
     </row>
-    <row r="90" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="8">
         <v>1E-3</v>
       </c>
@@ -6248,7 +6248,7 @@
         <v>7.226E-4</v>
       </c>
     </row>
-    <row r="91" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="8">
         <v>1E-3</v>
       </c>
@@ -6385,7 +6385,7 @@
         <v>6.5034000000000001E-4</v>
       </c>
     </row>
-    <row r="94" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="8">
         <v>8.9999999999999998E-4</v>
       </c>
@@ -6665,7 +6665,7 @@
         <v>-1.36023E-3</v>
       </c>
     </row>
-    <row r="100" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="8">
         <v>8.0000000000000004E-4</v>
       </c>
@@ -6710,7 +6710,7 @@
         <v>5.7808000000000002E-4</v>
       </c>
     </row>
-    <row r="101" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="8">
         <v>8.0000000000000004E-4</v>
       </c>
@@ -6802,7 +6802,7 @@
         <v>-3.8271700000000004E-3</v>
       </c>
     </row>
-    <row r="103" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="8">
         <v>8.0000000000000004E-4</v>
       </c>
@@ -6988,7 +6988,7 @@
         <v>-2.06507E-3</v>
       </c>
     </row>
-    <row r="107" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="8">
         <v>8.0000000000000004E-4</v>
       </c>
@@ -7033,7 +7033,7 @@
         <v>5.7808000000000002E-4</v>
       </c>
     </row>
-    <row r="108" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" s="8">
         <v>8.0000000000000004E-4</v>
       </c>
@@ -7264,7 +7264,7 @@
         <v>-2.2809999999999953E-5</v>
       </c>
     </row>
-    <row r="113" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="8">
         <v>6.9999999999999999E-4</v>
       </c>
@@ -7309,7 +7309,7 @@
         <v>5.0582000000000003E-4</v>
       </c>
     </row>
-    <row r="114" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A114" s="8">
         <v>6.9999999999999999E-4</v>
       </c>
@@ -7446,7 +7446,7 @@
         <v>5.0582000000000003E-4</v>
       </c>
     </row>
-    <row r="117" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="8">
         <v>6.9999999999999999E-4</v>
       </c>
@@ -7491,7 +7491,7 @@
         <v>5.0582000000000003E-4</v>
       </c>
     </row>
-    <row r="118" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A118" s="8">
         <v>6.9999999999999999E-4</v>
       </c>
@@ -7536,7 +7536,7 @@
         <v>5.0582000000000003E-4</v>
       </c>
     </row>
-    <row r="119" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="4">
         <v>6.9999999999999999E-4</v>
       </c>
@@ -7626,7 +7626,7 @@
         <v>5.0582000000000003E-4</v>
       </c>
     </row>
-    <row r="121" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="8">
         <v>6.9999999999999999E-4</v>
       </c>
@@ -7671,7 +7671,7 @@
         <v>5.0582000000000003E-4</v>
       </c>
     </row>
-    <row r="122" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="8">
         <v>6.9999999999999999E-4</v>
       </c>
@@ -7716,7 +7716,7 @@
         <v>5.0582000000000003E-4</v>
       </c>
     </row>
-    <row r="123" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A123" s="8">
         <v>6.9999999999999999E-4</v>
       </c>
@@ -7951,7 +7951,7 @@
         <v>4.3355999999999999E-4</v>
       </c>
     </row>
-    <row r="128" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="8">
         <v>5.9999999999999995E-4</v>
       </c>
@@ -7996,7 +7996,7 @@
         <v>4.3355999999999999E-4</v>
       </c>
     </row>
-    <row r="129" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="8">
         <v>5.9999999999999995E-4</v>
       </c>
@@ -8135,7 +8135,7 @@
         <v>-4.4748999999999999E-4</v>
       </c>
     </row>
-    <row r="132" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" s="8">
         <v>5.9999999999999995E-4</v>
       </c>
@@ -8317,7 +8317,7 @@
         <v>8.1139999999999999E-5</v>
       </c>
     </row>
-    <row r="136" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A136" s="8">
         <v>5.9999999999999995E-4</v>
       </c>
@@ -8409,7 +8409,7 @@
         <v>-1.32854E-3</v>
       </c>
     </row>
-    <row r="138" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A138" s="8">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -8593,7 +8593,7 @@
         <v>3.613E-4</v>
       </c>
     </row>
-    <row r="142" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A142" s="8">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -8638,7 +8638,7 @@
         <v>3.613E-4</v>
       </c>
     </row>
-    <row r="143" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A143" s="8">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -8777,7 +8777,7 @@
         <v>-3.4353999999999998E-4</v>
       </c>
     </row>
-    <row r="146" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A146" s="8">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -9192,7 +9192,7 @@
         <v>3.613E-4</v>
       </c>
     </row>
-    <row r="155" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A155" s="8">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -9378,7 +9378,7 @@
         <v>1.1283000000000002E-4</v>
       </c>
     </row>
-    <row r="159" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A159" s="15">
         <v>4.0000000000000002E-4</v>
       </c>
@@ -9517,7 +9517,7 @@
         <v>-6.3379999999999979E-5</v>
       </c>
     </row>
-    <row r="162" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A162" s="4">
         <v>4.0000000000000002E-4</v>
       </c>
@@ -9703,7 +9703,7 @@
         <v>2.8904000000000001E-4</v>
       </c>
     </row>
-    <row r="166" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A166" s="4">
         <v>4.0000000000000002E-4</v>
       </c>
@@ -9748,7 +9748,7 @@
         <v>2.8904000000000001E-4</v>
       </c>
     </row>
-    <row r="167" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A167" s="4">
         <v>4.0000000000000002E-4</v>
       </c>
@@ -9793,7 +9793,7 @@
         <v>2.8904000000000001E-4</v>
       </c>
     </row>
-    <row r="168" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A168" s="4">
         <v>4.0000000000000002E-4</v>
       </c>
@@ -9838,7 +9838,7 @@
         <v>2.8904000000000001E-4</v>
       </c>
     </row>
-    <row r="169" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A169" s="4">
         <v>4.0000000000000002E-4</v>
       </c>
@@ -9885,7 +9885,7 @@
         <v>-4.1579999999999997E-4</v>
       </c>
     </row>
-    <row r="170" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A170" s="4">
         <v>4.0000000000000002E-4</v>
       </c>
@@ -9930,7 +9930,7 @@
         <v>2.8904000000000001E-4</v>
       </c>
     </row>
-    <row r="171" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A171" s="4">
         <v>4.0000000000000002E-4</v>
       </c>
@@ -10022,7 +10022,7 @@
         <v>-6.3379999999999979E-5</v>
       </c>
     </row>
-    <row r="173" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A173" s="4">
         <v>4.0000000000000002E-4</v>
       </c>
@@ -10349,7 +10349,7 @@
         <v>2.8904000000000001E-4</v>
       </c>
     </row>
-    <row r="180" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A180" s="4">
         <v>4.0000000000000002E-4</v>
       </c>
@@ -10488,7 +10488,7 @@
         <v>1.1283000000000002E-4</v>
       </c>
     </row>
-    <row r="183" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A183" s="4">
         <v>4.0000000000000002E-4</v>
       </c>
@@ -10627,7 +10627,7 @@
         <v>1.1283000000000002E-4</v>
       </c>
     </row>
-    <row r="186" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A186" s="4">
         <v>4.0000000000000002E-4</v>
       </c>
@@ -10672,7 +10672,7 @@
         <v>2.8904000000000001E-4</v>
       </c>
     </row>
-    <row r="187" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A187" s="4">
         <v>4.0000000000000002E-4</v>
       </c>
@@ -10811,7 +10811,7 @@
         <v>-2.3958999999999997E-4</v>
       </c>
     </row>
-    <row r="190" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A190" s="4">
         <v>2.9999999999999997E-4</v>
       </c>
@@ -10903,7 +10903,7 @@
         <v>-1.3564E-4</v>
       </c>
     </row>
-    <row r="192" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A192" s="4">
         <v>2.9999999999999997E-4</v>
       </c>
@@ -10995,7 +10995,7 @@
         <v>4.057E-5</v>
       </c>
     </row>
-    <row r="194" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A194" s="4">
         <v>2.9999999999999997E-4</v>
       </c>
@@ -11085,7 +11085,7 @@
         <v>2.1677999999999999E-4</v>
       </c>
     </row>
-    <row r="196" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A196" s="4">
         <v>2.9999999999999997E-4</v>
       </c>
@@ -11130,7 +11130,7 @@
         <v>2.1677999999999999E-4</v>
       </c>
     </row>
-    <row r="197" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A197" s="4">
         <v>2.9999999999999997E-4</v>
       </c>
@@ -11265,7 +11265,7 @@
         <v>2.1677999999999999E-4</v>
       </c>
     </row>
-    <row r="200" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A200" s="4">
         <v>2.9999999999999997E-4</v>
       </c>
@@ -11355,7 +11355,7 @@
         <v>2.1677999999999999E-4</v>
       </c>
     </row>
-    <row r="202" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A202" s="4">
         <v>2.9999999999999997E-4</v>
       </c>
@@ -11490,7 +11490,7 @@
         <v>2.1677999999999999E-4</v>
       </c>
     </row>
-    <row r="205" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A205" s="4">
         <v>2.9999999999999997E-4</v>
       </c>
@@ -11535,7 +11535,7 @@
         <v>2.1677999999999999E-4</v>
       </c>
     </row>
-    <row r="206" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A206" s="4">
         <v>2.9999999999999997E-4</v>
       </c>
@@ -11580,7 +11580,7 @@
         <v>2.1677999999999999E-4</v>
       </c>
     </row>
-    <row r="207" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A207" s="4">
         <v>2.9999999999999997E-4</v>
       </c>
@@ -11764,7 +11764,7 @@
         <v>2.1677999999999999E-4</v>
       </c>
     </row>
-    <row r="211" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A211" s="4">
         <v>2.9999999999999997E-4</v>
       </c>
@@ -11903,7 +11903,7 @@
         <v>2.1677999999999999E-4</v>
       </c>
     </row>
-    <row r="214" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A214" s="4">
         <v>2.9999999999999997E-4</v>
       </c>
@@ -11948,7 +11948,7 @@
         <v>2.1677999999999999E-4</v>
       </c>
     </row>
-    <row r="215" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A215" s="4">
         <v>2.9999999999999997E-4</v>
       </c>
@@ -12087,7 +12087,7 @@
         <v>-3.1185000000000002E-4</v>
       </c>
     </row>
-    <row r="218" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A218" s="4">
         <v>2.9999999999999997E-4</v>
       </c>
@@ -12320,7 +12320,7 @@
         <v>-1.3564E-4</v>
       </c>
     </row>
-    <row r="223" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A223" s="4">
         <v>2.9999999999999997E-4</v>
       </c>
@@ -12410,7 +12410,7 @@
         <v>-4.8806000000000001E-4</v>
       </c>
     </row>
-    <row r="225" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A225" s="4">
         <v>2.9999999999999997E-4</v>
       </c>
@@ -12455,7 +12455,7 @@
         <v>2.1677999999999999E-4</v>
       </c>
     </row>
-    <row r="226" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A226" s="4">
         <v>2.9999999999999997E-4</v>
       </c>
@@ -12500,7 +12500,7 @@
         <v>2.1677999999999999E-4</v>
       </c>
     </row>
-    <row r="227" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A227" s="4">
         <v>2.9999999999999997E-4</v>
       </c>
@@ -12545,7 +12545,7 @@
         <v>2.1677999999999999E-4</v>
       </c>
     </row>
-    <row r="228" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A228" s="4">
         <v>2.9999999999999997E-4</v>
       </c>
@@ -12635,7 +12635,7 @@
         <v>2.1677999999999999E-4</v>
       </c>
     </row>
-    <row r="230" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A230" s="4">
         <v>2.9999999999999997E-4</v>
       </c>
@@ -12680,7 +12680,7 @@
         <v>2.1677999999999999E-4</v>
       </c>
     </row>
-    <row r="231" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A231" s="4">
         <v>2.9999999999999997E-4</v>
       </c>
@@ -12725,7 +12725,7 @@
         <v>2.1677999999999999E-4</v>
       </c>
     </row>
-    <row r="232" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A232" s="4">
         <v>2.9999999999999997E-4</v>
       </c>
@@ -12770,7 +12770,7 @@
         <v>2.1677999999999999E-4</v>
       </c>
     </row>
-    <row r="233" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A233" s="4">
         <v>2.9999999999999997E-4</v>
       </c>
@@ -12815,7 +12815,7 @@
         <v>2.1677999999999999E-4</v>
       </c>
     </row>
-    <row r="234" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A234" s="4">
         <v>2.9999999999999997E-4</v>
       </c>
@@ -12860,7 +12860,7 @@
         <v>2.1677999999999999E-4</v>
       </c>
     </row>
-    <row r="235" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A235" s="4">
         <v>2.9999999999999997E-4</v>
       </c>
@@ -12997,7 +12997,7 @@
         <v>4.057E-5</v>
       </c>
     </row>
-    <row r="238" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A238" s="4">
         <v>2.9999999999999997E-4</v>
       </c>
@@ -13087,7 +13087,7 @@
         <v>2.1677999999999999E-4</v>
       </c>
     </row>
-    <row r="240" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A240" s="4">
         <v>2.9999999999999997E-4</v>
       </c>
@@ -13132,7 +13132,7 @@
         <v>2.1677999999999999E-4</v>
       </c>
     </row>
-    <row r="241" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A241" s="4">
         <v>2.9999999999999997E-4</v>
       </c>
@@ -13271,7 +13271,7 @@
         <v>-7.3653E-4</v>
       </c>
     </row>
-    <row r="244" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A244" s="4">
         <v>2.0000000000000001E-4</v>
       </c>
@@ -13453,7 +13453,7 @@
         <v>-3.8411000000000001E-4</v>
       </c>
     </row>
-    <row r="248" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A248" s="4">
         <v>2.0000000000000001E-4</v>
       </c>
@@ -13498,7 +13498,7 @@
         <v>1.4452000000000001E-4</v>
       </c>
     </row>
-    <row r="249" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A249" s="4">
         <v>2.0000000000000001E-4</v>
       </c>
@@ -13590,7 +13590,7 @@
         <v>-2.0789999999999998E-4</v>
       </c>
     </row>
-    <row r="251" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A251" s="4">
         <v>2.0000000000000001E-4</v>
       </c>
@@ -13682,7 +13682,7 @@
         <v>-9.1273999999999999E-4</v>
       </c>
     </row>
-    <row r="253" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A253" s="4">
         <v>2.0000000000000001E-4</v>
       </c>
@@ -13727,7 +13727,7 @@
         <v>1.4452000000000001E-4</v>
       </c>
     </row>
-    <row r="254" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A254" s="4">
         <v>2.0000000000000001E-4</v>
       </c>
@@ -13819,7 +13819,7 @@
         <v>-2.0789999999999998E-4</v>
       </c>
     </row>
-    <row r="256" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A256" s="4">
         <v>2.0000000000000001E-4</v>
       </c>
@@ -14003,7 +14003,7 @@
         <v>1.4452000000000001E-4</v>
       </c>
     </row>
-    <row r="260" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A260" s="4">
         <v>2.0000000000000001E-4</v>
       </c>
@@ -14187,7 +14187,7 @@
         <v>1.4452000000000001E-4</v>
       </c>
     </row>
-    <row r="264" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A264" s="4">
         <v>2.0000000000000001E-4</v>
       </c>
@@ -14371,7 +14371,7 @@
         <v>1.4452000000000001E-4</v>
       </c>
     </row>
-    <row r="268" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A268" s="4">
         <v>2.0000000000000001E-4</v>
       </c>
@@ -14510,7 +14510,7 @@
         <v>-7.3653E-4</v>
       </c>
     </row>
-    <row r="271" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A271" s="4">
         <v>2.0000000000000001E-4</v>
       </c>
@@ -16427,7 +16427,7 @@
         <v>1.4452000000000001E-4</v>
       </c>
     </row>
-    <row r="312" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A312" s="4">
         <v>2.0000000000000001E-4</v>
       </c>
@@ -16474,7 +16474,7 @@
         <v>-5.6032E-4</v>
       </c>
     </row>
-    <row r="313" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A313" s="4">
         <v>2.0000000000000001E-4</v>
       </c>
@@ -16940,7 +16940,7 @@
         <v>-3.168999999999999E-5</v>
       </c>
     </row>
-    <row r="323" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A323" s="4">
         <v>2.0000000000000001E-4</v>
       </c>
@@ -17639,7 +17639,7 @@
         <v>1.4452000000000001E-4</v>
       </c>
     </row>
-    <row r="338" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A338" s="4">
         <v>2.0000000000000001E-4</v>
       </c>
@@ -17776,7 +17776,7 @@
         <v>-5.6032E-4</v>
       </c>
     </row>
-    <row r="341" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A341" s="4">
         <v>2.0000000000000001E-4</v>
       </c>
@@ -18103,7 +18103,7 @@
         <v>-2.0789999999999998E-4</v>
       </c>
     </row>
-    <row r="348" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A348" s="4">
         <v>2.0000000000000001E-4</v>
       </c>
@@ -18849,7 +18849,7 @@
         <v>-3.8411000000000001E-4</v>
       </c>
     </row>
-    <row r="364" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A364" s="4">
         <v>2.0000000000000001E-4</v>
       </c>
@@ -19129,7 +19129,7 @@
         <v>-3.168999999999999E-5</v>
       </c>
     </row>
-    <row r="370" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A370" s="4">
         <v>2.0000000000000001E-4</v>
       </c>
@@ -19174,7 +19174,7 @@
         <v>1.4452000000000001E-4</v>
       </c>
     </row>
-    <row r="371" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A371" s="4">
         <v>2.0000000000000001E-4</v>
       </c>
@@ -19313,7 +19313,7 @@
         <v>1.4452000000000001E-4</v>
       </c>
     </row>
-    <row r="374" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A374" s="4">
         <v>2.0000000000000001E-4</v>
       </c>
@@ -19405,7 +19405,7 @@
         <v>1.4452000000000001E-4</v>
       </c>
     </row>
-    <row r="376" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A376" s="4">
         <v>2.0000000000000001E-4</v>
       </c>
@@ -19450,7 +19450,7 @@
         <v>1.4452000000000001E-4</v>
       </c>
     </row>
-    <row r="377" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A377" s="4">
         <v>2.0000000000000001E-4</v>
       </c>
@@ -19542,7 +19542,7 @@
         <v>1.4452000000000001E-4</v>
       </c>
     </row>
-    <row r="379" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A379" s="4">
         <v>2.0000000000000001E-4</v>
       </c>
@@ -19773,7 +19773,7 @@
         <v>-5.6032E-4</v>
       </c>
     </row>
-    <row r="384" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A384" s="4">
         <v>2.0000000000000001E-4</v>
       </c>
@@ -19865,7 +19865,7 @@
         <v>1.4452000000000001E-4</v>
       </c>
     </row>
-    <row r="386" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A386" s="4">
         <v>2.0000000000000001E-4</v>
       </c>
@@ -20049,7 +20049,7 @@
         <v>1.4452000000000001E-4</v>
       </c>
     </row>
-    <row r="390" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A390" s="4">
         <v>2.0000000000000001E-4</v>
       </c>
@@ -20231,7 +20231,7 @@
         <v>1.4452000000000001E-4</v>
       </c>
     </row>
-    <row r="394" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A394" s="4">
         <v>2.0000000000000001E-4</v>
       </c>
@@ -20417,7 +20417,7 @@
         <v>1.4452000000000001E-4</v>
       </c>
     </row>
-    <row r="398" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A398" s="4">
         <v>2.0000000000000001E-4</v>
       </c>
@@ -20462,7 +20462,7 @@
         <v>1.4452000000000001E-4</v>
       </c>
     </row>
-    <row r="399" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A399" s="4">
         <v>2.0000000000000001E-4</v>
       </c>
@@ -20507,7 +20507,7 @@
         <v>1.4452000000000001E-4</v>
       </c>
     </row>
-    <row r="400" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A400" s="4">
         <v>2.0000000000000001E-4</v>
       </c>
@@ -20693,7 +20693,7 @@
         <v>-3.8411000000000001E-4</v>
       </c>
     </row>
-    <row r="404" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A404" s="4">
         <v>2.0000000000000001E-4</v>
       </c>
@@ -20738,7 +20738,7 @@
         <v>1.4452000000000001E-4</v>
       </c>
     </row>
-    <row r="405" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A405" s="4">
         <v>2.0000000000000001E-4</v>
       </c>
@@ -20783,7 +20783,7 @@
         <v>1.4452000000000001E-4</v>
       </c>
     </row>
-    <row r="406" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A406" s="4">
         <v>2.0000000000000001E-4</v>
       </c>
@@ -20828,7 +20828,7 @@
         <v>1.4452000000000001E-4</v>
       </c>
     </row>
-    <row r="407" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A407" s="4">
         <v>2.0000000000000001E-4</v>
       </c>
@@ -20873,7 +20873,7 @@
         <v>1.4452000000000001E-4</v>
       </c>
     </row>
-    <row r="408" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A408" s="4">
         <v>2.0000000000000001E-4</v>
       </c>
@@ -20967,7 +20967,7 @@
         <v>7.2260000000000003E-5</v>
       </c>
     </row>
-    <row r="410" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A410" s="4">
         <v>1E-4</v>
       </c>
@@ -21057,7 +21057,7 @@
         <v>7.2260000000000003E-5</v>
       </c>
     </row>
-    <row r="412" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A412" s="4">
         <v>1E-4</v>
       </c>
@@ -21102,7 +21102,7 @@
         <v>7.2260000000000003E-5</v>
       </c>
     </row>
-    <row r="413" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A413" s="4">
         <v>1E-4</v>
       </c>
@@ -21288,7 +21288,7 @@
         <v>7.2260000000000003E-5</v>
       </c>
     </row>
-    <row r="417" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A417" s="4">
         <v>1E-4</v>
       </c>
@@ -21427,7 +21427,7 @@
         <v>-4.5637E-4</v>
       </c>
     </row>
-    <row r="420" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A420" s="4">
         <v>1E-4</v>
       </c>
@@ -21472,7 +21472,7 @@
         <v>7.2260000000000003E-5</v>
       </c>
     </row>
-    <row r="421" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A421" s="4">
         <v>1E-4</v>
       </c>
@@ -21517,7 +21517,7 @@
         <v>7.2260000000000003E-5</v>
       </c>
     </row>
-    <row r="422" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A422" s="4">
         <v>1E-4</v>
       </c>
@@ -21562,7 +21562,7 @@
         <v>7.2260000000000003E-5</v>
       </c>
     </row>
-    <row r="423" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A423" s="4">
         <v>1E-4</v>
       </c>
@@ -21746,7 +21746,7 @@
         <v>-1.0394999999999999E-4</v>
       </c>
     </row>
-    <row r="427" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A427" s="4">
         <v>1E-4</v>
       </c>
@@ -21838,7 +21838,7 @@
         <v>7.2260000000000003E-5</v>
       </c>
     </row>
-    <row r="429" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A429" s="4">
         <v>1E-4</v>
       </c>
@@ -21883,7 +21883,7 @@
         <v>7.2260000000000003E-5</v>
       </c>
     </row>
-    <row r="430" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A430" s="4">
         <v>1E-4</v>
       </c>
@@ -22018,7 +22018,7 @@
         <v>7.2260000000000003E-5</v>
       </c>
     </row>
-    <row r="433" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A433" s="4">
         <v>1E-4</v>
       </c>
@@ -22112,7 +22112,7 @@
         <v>7.2260000000000003E-5</v>
       </c>
     </row>
-    <row r="435" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A435" s="4">
         <v>1E-4</v>
       </c>
@@ -22157,7 +22157,7 @@
         <v>7.2260000000000003E-5</v>
       </c>
     </row>
-    <row r="436" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A436" s="4">
         <v>1E-4</v>
       </c>
@@ -22294,7 +22294,7 @@
         <v>-1.0394999999999999E-4</v>
       </c>
     </row>
-    <row r="439" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A439" s="4">
         <v>1E-4</v>
       </c>
@@ -22339,7 +22339,7 @@
         <v>7.2260000000000003E-5</v>
       </c>
     </row>
-    <row r="440" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A440" s="4">
         <v>1E-4</v>
       </c>
@@ -22431,7 +22431,7 @@
         <v>-2.8016E-4</v>
       </c>
     </row>
-    <row r="442" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A442" s="4">
         <v>1E-4</v>
       </c>
@@ -22568,7 +22568,7 @@
         <v>7.2260000000000003E-5</v>
       </c>
     </row>
-    <row r="445" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A445" s="4">
         <v>1E-4</v>
       </c>
@@ -22662,7 +22662,7 @@
         <v>-2.8016E-4</v>
       </c>
     </row>
-    <row r="447" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A447" s="4">
         <v>1E-4</v>
       </c>
@@ -22752,7 +22752,7 @@
         <v>7.2260000000000003E-5</v>
       </c>
     </row>
-    <row r="449" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A449" s="4">
         <v>1E-4</v>
       </c>
@@ -22797,7 +22797,7 @@
         <v>7.2260000000000003E-5</v>
       </c>
     </row>
-    <row r="450" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A450" s="4">
         <v>1E-4</v>
       </c>
@@ -22936,7 +22936,7 @@
         <v>-1.0394999999999999E-4</v>
       </c>
     </row>
-    <row r="453" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A453" s="4">
         <v>1E-4</v>
       </c>
@@ -23026,7 +23026,7 @@
         <v>7.2260000000000003E-5</v>
       </c>
     </row>
-    <row r="455" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A455" s="4">
         <v>1E-4</v>
       </c>
@@ -23208,7 +23208,7 @@
         <v>7.2260000000000003E-5</v>
       </c>
     </row>
-    <row r="459" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A459" s="4">
         <v>1E-4</v>
       </c>
@@ -23392,7 +23392,7 @@
         <v>-1.0394999999999999E-4</v>
       </c>
     </row>
-    <row r="463" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A463" s="4">
         <v>1E-4</v>
       </c>
@@ -23437,7 +23437,7 @@
         <v>7.2260000000000003E-5</v>
       </c>
     </row>
-    <row r="464" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A464" s="4">
         <v>1E-4</v>
       </c>
@@ -23621,7 +23621,7 @@
         <v>7.2260000000000003E-5</v>
       </c>
     </row>
-    <row r="468" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A468" s="4">
         <v>1E-4</v>
       </c>
@@ -23666,7 +23666,7 @@
         <v>7.2260000000000003E-5</v>
       </c>
     </row>
-    <row r="469" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A469" s="4">
         <v>1E-4</v>
       </c>
@@ -23711,7 +23711,7 @@
         <v>7.2260000000000003E-5</v>
       </c>
     </row>
-    <row r="470" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A470" s="4">
         <v>1E-4</v>
       </c>
@@ -23756,7 +23756,7 @@
         <v>7.2260000000000003E-5</v>
       </c>
     </row>
-    <row r="471" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A471" s="4">
         <v>1E-4</v>
       </c>
@@ -23801,7 +23801,7 @@
         <v>7.2260000000000003E-5</v>
       </c>
     </row>
-    <row r="472" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A472" s="4">
         <v>1E-4</v>
       </c>
@@ -23846,7 +23846,7 @@
         <v>7.2260000000000003E-5</v>
       </c>
     </row>
-    <row r="473" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A473" s="4">
         <v>1E-4</v>
       </c>
@@ -23936,7 +23936,7 @@
         <v>7.2260000000000003E-5</v>
       </c>
     </row>
-    <row r="475" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A475" s="4">
         <v>1E-4</v>
       </c>
@@ -24073,7 +24073,7 @@
         <v>7.2260000000000003E-5</v>
       </c>
     </row>
-    <row r="478" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A478" s="4">
         <v>1E-4</v>
       </c>
@@ -24210,7 +24210,7 @@
         <v>7.2260000000000003E-5</v>
       </c>
     </row>
-    <row r="481" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A481" s="4">
         <v>1E-4</v>
       </c>
@@ -24255,7 +24255,7 @@
         <v>7.2260000000000003E-5</v>
       </c>
     </row>
-    <row r="482" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A482" s="4">
         <v>1E-4</v>
       </c>
@@ -24300,7 +24300,7 @@
         <v>7.2260000000000003E-5</v>
       </c>
     </row>
-    <row r="483" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A483" s="4">
         <v>1E-4</v>
       </c>
@@ -24390,7 +24390,7 @@
         <v>7.2260000000000003E-5</v>
       </c>
     </row>
-    <row r="485" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A485" s="4">
         <v>1E-4</v>
       </c>
@@ -24435,7 +24435,7 @@
         <v>7.2260000000000003E-5</v>
       </c>
     </row>
-    <row r="486" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A486" s="4">
         <v>1E-4</v>
       </c>
@@ -24480,7 +24480,7 @@
         <v>7.2260000000000003E-5</v>
       </c>
     </row>
-    <row r="487" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A487" s="4">
         <v>1E-4</v>
       </c>
@@ -24570,7 +24570,7 @@
         <v>7.2260000000000003E-5</v>
       </c>
     </row>
-    <row r="489" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A489" s="4">
         <v>1E-4</v>
       </c>
@@ -24615,7 +24615,7 @@
         <v>7.2260000000000003E-5</v>
       </c>
     </row>
-    <row r="490" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A490" s="4">
         <v>1E-4</v>
       </c>
@@ -24705,7 +24705,7 @@
         <v>-1.0394999999999999E-4</v>
       </c>
     </row>
-    <row r="492" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A492" s="4">
         <v>1E-4</v>
       </c>
@@ -24977,7 +24977,7 @@
         <v>7.2260000000000003E-5</v>
       </c>
     </row>
-    <row r="498" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A498" s="4">
         <v>1E-4</v>
       </c>
@@ -25067,7 +25067,7 @@
         <v>7.2260000000000003E-5</v>
       </c>
     </row>
-    <row r="500" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A500" s="4">
         <v>1E-4</v>
       </c>
@@ -25112,7 +25112,7 @@
         <v>7.2260000000000003E-5</v>
       </c>
     </row>
-    <row r="501" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A501" s="4">
         <v>1E-4</v>
       </c>
@@ -25157,7 +25157,7 @@
         <v>7.2260000000000003E-5</v>
       </c>
     </row>
-    <row r="502" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A502" s="4">
         <v>1E-4</v>
       </c>
@@ -25202,7 +25202,7 @@
         <v>-2.3946799999999997E-3</v>
       </c>
     </row>
-    <row r="503" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A503" s="4">
         <v>1E-4</v>
       </c>
@@ -25521,7 +25521,7 @@
         <v>7.2260000000000003E-5</v>
       </c>
     </row>
-    <row r="510" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A510" s="4">
         <v>1E-4</v>
       </c>
@@ -25840,7 +25840,7 @@
         <v>7.2260000000000003E-5</v>
       </c>
     </row>
-    <row r="517" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A517" s="4">
         <v>1E-4</v>
       </c>
@@ -26155,7 +26155,7 @@
         <v>7.2260000000000003E-5</v>
       </c>
     </row>
-    <row r="524" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A524" s="4">
         <v>1E-4</v>
       </c>
@@ -26335,7 +26335,7 @@
         <v>7.2260000000000003E-5</v>
       </c>
     </row>
-    <row r="528" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A528" s="4">
         <v>1E-4</v>
       </c>
@@ -26380,7 +26380,7 @@
         <v>7.2260000000000003E-5</v>
       </c>
     </row>
-    <row r="529" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A529" s="4">
         <v>1E-4</v>
       </c>
@@ -26517,7 +26517,7 @@
         <v>-4.5637E-4</v>
       </c>
     </row>
-    <row r="532" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A532" s="4">
         <v>1E-4</v>
       </c>
@@ -26562,7 +26562,7 @@
         <v>7.2260000000000003E-5</v>
       </c>
     </row>
-    <row r="533" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A533" s="4">
         <v>1E-4</v>
       </c>
@@ -26652,7 +26652,7 @@
         <v>7.2260000000000003E-5</v>
       </c>
     </row>
-    <row r="535" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A535" s="4">
         <v>1E-4</v>
       </c>
@@ -26697,7 +26697,7 @@
         <v>7.2260000000000003E-5</v>
       </c>
     </row>
-    <row r="536" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A536" s="4">
         <v>1E-4</v>
       </c>
@@ -26832,7 +26832,7 @@
         <v>7.2260000000000003E-5</v>
       </c>
     </row>
-    <row r="539" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A539" s="4">
         <v>1E-4</v>
       </c>
@@ -26967,7 +26967,7 @@
         <v>-1.7621E-4</v>
       </c>
     </row>
-    <row r="542" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A542" s="4">
         <v>0</v>
       </c>
@@ -27012,7 +27012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A543" s="4">
         <v>0</v>
       </c>
@@ -27057,7 +27057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A544" s="4">
         <v>0</v>
       </c>
@@ -27147,7 +27147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A546" s="4">
         <v>0</v>
       </c>
@@ -27284,7 +27284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="549" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A549" s="4">
         <v>0</v>
       </c>
@@ -27374,7 +27374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="551" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A551" s="4">
         <v>0</v>
       </c>
@@ -27419,7 +27419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="552" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A552" s="4">
         <v>0</v>
       </c>
@@ -27511,7 +27511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="554" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A554" s="4">
         <v>0</v>
       </c>
@@ -27556,7 +27556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="555" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A555" s="4">
         <v>0</v>
       </c>
@@ -27789,7 +27789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="560" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A560" s="4">
         <v>0</v>
       </c>
@@ -27928,7 +27928,7 @@
         <v>-1.7621E-4</v>
       </c>
     </row>
-    <row r="563" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A563" s="4">
         <v>0</v>
       </c>
@@ -28018,7 +28018,7 @@
         <v>-1.7621E-4</v>
       </c>
     </row>
-    <row r="565" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A565" s="4">
         <v>0</v>
       </c>
@@ -28063,7 +28063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A566" s="4">
         <v>0</v>
       </c>
@@ -28108,7 +28108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A567" s="4">
         <v>0</v>
       </c>
@@ -28292,7 +28292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="571" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A571" s="4">
         <v>0</v>
       </c>
@@ -28337,7 +28337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="572" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A572" s="4">
         <v>0</v>
       </c>
@@ -28382,7 +28382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="573" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A573" s="4">
         <v>0</v>
       </c>
@@ -28427,7 +28427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A574" s="4">
         <v>0</v>
       </c>
@@ -28838,7 +28838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="583" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A583" s="4">
         <v>0</v>
       </c>
@@ -28883,7 +28883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="584" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A584" s="4">
         <v>0</v>
       </c>
@@ -28928,7 +28928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="585" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A585" s="4">
         <v>0</v>
       </c>

--- a/perf_du_fullwithno.xlsx
+++ b/perf_du_fullwithno.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cuidi/Library/Mobile Documents/com~apple~CloudDocs/Research/5G/csvAnalysis/Test5Gscript/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cuidi/Library/Mobile Documents/com~apple~CloudDocs/Research/5G/Sigcomm_Test/UsefulData/Test5Gscript/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7FB4775-8EF9-0740-A66A-C865E9CFE873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCCE7916-5EA9-5941-84AC-96D372A34986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="perf_du_fullwithno" sheetId="1" r:id="rId1"/>
@@ -2047,7 +2047,7 @@
   <dimension ref="A1:T589"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="102" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3803,7 +3803,7 @@
         <v>3.8297800000000001E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="8">
         <v>5.1999999999999998E-3</v>
       </c>
@@ -3895,7 +3895,7 @@
         <v>1.4262200000000002E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="8">
         <v>4.7000000000000002E-3</v>
       </c>
@@ -4034,7 +4034,7 @@
         <v>-9.2275199999999995E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>4.3E-3</v>
       </c>
